--- a/Loan_Sanction_Cleaned.xlsx
+++ b/Loan_Sanction_Cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph Okpono\Desktop\Data Analysis Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1DE55A-09C3-4E80-9B42-8EBA32C76464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A922BB-0A28-4817-AC01-CC162DC9BCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2386,7 +2386,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2410,12 +2410,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -39192,7 +39186,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S2"/>
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39221,7 +39215,7 @@
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
-      <c r="S1" s="15"/>
+      <c r="S1" s="12"/>
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
@@ -39247,7 +39241,7 @@
       <c r="P2" s="14"/>
       <c r="Q2" s="14"/>
       <c r="R2" s="14"/>
-      <c r="S2" s="16"/>
+      <c r="S2" s="14"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
